--- a/src/main.xlsx
+++ b/src/main.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haya/Sites/HCI_touchpad/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A52370-7027-EF40-B31A-6F96F777DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3BED4-1CFC-6E49-87DA-4E7C4F8057D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18060" xr2:uid="{978633E5-CDBD-1142-8EDD-F7EDAA040E9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,168 @@
   </si>
   <si>
     <t>Right or Left handed</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Phone Type</t>
+  </si>
+  <si>
+    <t>Engaged?</t>
+  </si>
+  <si>
+    <t>Bored?</t>
+  </si>
+  <si>
+    <t>Frustrated?</t>
+  </si>
+  <si>
+    <t>Yara Mostafa</t>
+  </si>
+  <si>
+    <t>Preferred not to answer</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Iphone 12 pro</t>
+  </si>
+  <si>
+    <t>A: bboth</t>
+  </si>
+  <si>
+    <t>B: direct touch</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>very engaged</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1.34 (direct touch)</t>
+  </si>
+  <si>
+    <t>1.278 (direct)</t>
+  </si>
+  <si>
+    <t>1.194 (direct)</t>
+  </si>
+  <si>
+    <t>1.329 (direct)</t>
+  </si>
+  <si>
+    <t>3.051 (moved shwe shwe for accuracy)</t>
+  </si>
+  <si>
+    <t>4.399 (difficult, small and on the edge)</t>
+  </si>
+  <si>
+    <t>Almo Cuci</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Iphone 8 plus</t>
+  </si>
+  <si>
+    <t>Mariam Mansour</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>More exciting</t>
+  </si>
+  <si>
+    <t>Yes it's like a game, I can be addicted to it (easily)</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>Samsung S8</t>
+  </si>
+  <si>
+    <t>half half</t>
+  </si>
+  <si>
+    <t>One time it was stuck so lowkey yes</t>
+  </si>
+  <si>
+    <t>Samsung 21</t>
+  </si>
+  <si>
+    <t>Thor Karlson</t>
+  </si>
+  <si>
+    <t>Mohamad Habi</t>
+  </si>
+  <si>
+    <t>a bit, cause it was small icon and you needed to press multiple times to actually click on it</t>
+  </si>
+  <si>
+    <t>Not really but if was in the case of an application</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Mattis Megevand</t>
+  </si>
+  <si>
+    <t>Ioana Baciu</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Rasha</t>
+  </si>
+  <si>
+    <t>Christelle</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Maria Hajj</t>
+  </si>
+  <si>
+    <t>Hadi Dayekh</t>
+  </si>
+  <si>
+    <t>Lynn Farhat</t>
   </si>
 </sst>
 </file>
@@ -81,12 +243,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,9 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,43 +596,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46477E58-41D3-D54F-B153-9579FF8F2883}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3155</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.0590000000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.4870000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.6470000000000002</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.1669999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.2229999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.524</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.0539999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.2869999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8.3729999999999993</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.948</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2.4129999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>2.133</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>19.71</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.615</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.802</v>
+      </c>
+      <c r="P7" s="2">
+        <v>8.9930000000000003</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.2410000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.6379999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18.096</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7.7789999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <v>19.856000000000002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>19.658000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>9.4429999999999996</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5.9279999999999999</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="R8" s="1">
+        <v>6.7409999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.077</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>21.532</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2.395</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.355</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.173</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.677</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5.5830000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.0110000000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.992</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.6240000000000001</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1.8919999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="T17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="T18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main.xlsx
+++ b/src/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haya/Sites/HCI_touchpad/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3BED4-1CFC-6E49-87DA-4E7C4F8057D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6A215-05AF-3D41-8059-F09A8E76232C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18060" xr2:uid="{978633E5-CDBD-1142-8EDD-F7EDAA040E9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -204,22 +204,13 @@
     <t>Francesca</t>
   </si>
   <si>
-    <t>Rasha</t>
-  </si>
-  <si>
-    <t>Christelle</t>
-  </si>
-  <si>
-    <t>Mira</t>
-  </si>
-  <si>
     <t>Maria Hajj</t>
   </si>
   <si>
-    <t>Hadi Dayekh</t>
-  </si>
-  <si>
     <t>Lynn Farhat</t>
+  </si>
+  <si>
+    <t>Mira Zeitun</t>
   </si>
 </sst>
 </file>
@@ -275,11 +266,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -598,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46477E58-41D3-D54F-B153-9579FF8F2883}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,162 +604,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>3155</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>3.6930000000000001</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>2.5270000000000001</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>1.611</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>1.7290000000000001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>2.84</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>1.4530000000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>0.81799999999999995</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>0.86</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>2.7669999999999999</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>0.97699999999999998</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>0.93</v>
       </c>
     </row>
@@ -870,100 +856,93 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>4.2869999999999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>8.3729999999999993</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>6.3049999999999997</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>4.4400000000000004</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>2.6619999999999999</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>4.58</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>2.7959999999999998</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>2.0459999999999998</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>1.948</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>2.4129999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
         <v>2.133</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>2.8220000000000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>19.71</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>1.74</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>2.8410000000000002</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>1.615</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>1.802</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>8.9930000000000003</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>2.8260000000000001</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>1.2410000000000001</v>
       </c>
     </row>
@@ -1066,100 +1045,93 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>3.6230000000000002</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>3.355</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>3.173</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>5.5659999999999998</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>2.6219999999999999</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>4.6100000000000003</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>2.8370000000000002</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>3.677</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>5.5830000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
         <v>1.9219999999999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>3.0110000000000001</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>4.9089999999999998</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>2.992</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>1.1120000000000001</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>3.6240000000000001</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>3.4159999999999999</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>2.4239999999999999</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>4.5129999999999999</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>1.8919999999999999</v>
       </c>
     </row>
@@ -1210,50 +1182,17 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1300,65 +1239,32 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="T17" s="2" t="s">
+      <c r="T17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="T18" s="2" t="s">
+      <c r="T18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1400,55 +1306,24 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1490,58 +1365,20 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1582,50 +1419,17 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
